--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Martin\Documents\Programing teaching\PuzzleGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139E7010-F37D-4D5B-80A6-9855E314CC38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153FADE7-9803-493F-8CC5-60C2550ACF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="120" windowWidth="25530" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Detailed task</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Impliment button class</t>
   </si>
   <si>
-    <t xml:space="preserve">Like the square class, this will be a class for each button we will use (mostly in the menu but everywhere else will use the same class - infact the squares could have been done as buttons, but we will be keeping them separate for animation purposes) They will need a "click" function, display, etc. </t>
-  </si>
-  <si>
     <t>The menu will be like a board, holding lots of buttons which each do different things. We will have to think and decide how to resolve each click and move to each menu. We may do it with delegates which is a new concept</t>
   </si>
   <si>
@@ -157,6 +154,36 @@
   </si>
   <si>
     <t>This will be an extra thing we may do at the end if we have time</t>
+  </si>
+  <si>
+    <t>Board updates</t>
+  </si>
+  <si>
+    <t>Make the board scale</t>
+  </si>
+  <si>
+    <t>Edit the board scaling function to have the distances scale as well</t>
+  </si>
+  <si>
+    <t>Exporting for Mobile</t>
+  </si>
+  <si>
+    <t>Find a library to export our game to work as an app on Android</t>
+  </si>
+  <si>
+    <t>Like the square class, this will be a class for each button we will use (mostly in the menu but everywhere else will use the same class - infact the squares could have been done as buttons, but we will be keeping them separate for animation purposes) They will need a "click" function, display, etc. Functions: Display, Click, IsIn</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -201,7 +228,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -477,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,6 +565,9 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
@@ -524,6 +576,9 @@
       <c r="B3" t="s">
         <v>23</v>
       </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -532,32 +587,56 @@
       <c r="B5" t="s">
         <v>27</v>
       </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>26</v>
       </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -568,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,7 +655,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -584,7 +663,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,7 +674,7 @@
         <v>17</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -603,7 +682,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,7 +690,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -622,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,7 +720,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -649,18 +728,45 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="1" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Done">
+      <formula>NOT(ISERROR(SEARCH("Done",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",D1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Martin\Documents\Programing teaching\PuzzleGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153FADE7-9803-493F-8CC5-60C2550ACF17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3537B9-FF14-4E97-965E-306121E2E346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="120" windowWidth="25530" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Detailed task</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>Fix font problem</t>
   </si>
 </sst>
 </file>
@@ -228,14 +231,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -526,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,12 +754,17 @@
         <v>47</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="In progress">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="In progress">
       <formula>NOT(ISERROR(SEARCH("In progress",D1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Martin\Documents\Programing teaching\PuzzleGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3537B9-FF14-4E97-965E-306121E2E346}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7A00B-A8E0-4F71-BA48-F46C414AF3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Detailed task</t>
   </si>
@@ -187,6 +187,18 @@
   </si>
   <si>
     <t>Fix font problem</t>
+  </si>
+  <si>
+    <t>Finish main menu</t>
+  </si>
+  <si>
+    <t>Finish complete menu</t>
+  </si>
+  <si>
+    <t>Make all the correct scene changes (level, settings) and positioning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make two buttons, ("next level" and "Quit") - and scene changes/positioning. </t>
   </si>
 </sst>
 </file>
@@ -235,14 +247,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +599,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
@@ -601,7 +613,7 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -615,7 +627,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -635,137 +647,153 @@
         <v>30</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>43</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>53</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Done">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="In progress">
+      <formula>NOT(ISERROR(SEARCH("In progress",D1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Done">
       <formula>NOT(ISERROR(SEARCH("Done",D1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="In progress">
-      <formula>NOT(ISERROR(SEARCH("In progress",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TaskPlan.xlsx
+++ b/TaskPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Martin\Documents\Programing teaching\PuzzleGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA7A00B-A8E0-4F71-BA48-F46C414AF3FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7647C396-CD09-4FA8-8CA0-2C620F50D231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Detailed task</t>
   </si>
@@ -192,13 +192,13 @@
     <t>Finish main menu</t>
   </si>
   <si>
-    <t>Finish complete menu</t>
-  </si>
-  <si>
-    <t>Make all the correct scene changes (level, settings) and positioning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make two buttons, ("next level" and "Quit") - and scene changes/positioning. </t>
+    <t>Make two buttons, ("next level" and "Quit") - and scene changes/positioning. Pluss add gray out - new class</t>
+  </si>
+  <si>
+    <t>Make all the correct scene changes (level, arcade, settings) and positioning.</t>
+  </si>
+  <si>
+    <t>Finish complete game menu</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,16 +651,28 @@
       <c r="B9" t="s">
         <v>54</v>
       </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
